--- a/craftsmen.xlsx
+++ b/craftsmen.xlsx
@@ -1,20 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{DEFDBD1C-FEE5-C546-AA43-9B22124436CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="الحرفيين" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>الاسم</t>
   </si>
@@ -74,17 +88,26 @@
   </si>
   <si>
     <t>0776543210</t>
+  </si>
+  <si>
+    <t>عيسى لطيف</t>
+  </si>
+  <si>
+    <t>ابواب وشبابيك بلاستك</t>
+  </si>
+  <si>
+    <t>شارع المعامل</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -92,7 +115,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -139,17 +162,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="عادي" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -187,7 +218,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -221,6 +252,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -255,9 +287,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -430,14 +463,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="10.41796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,7 +489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -465,7 +503,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -479,7 +517,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -493,7 +531,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -505,6 +543,20 @@
       </c>
       <c r="D5" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>770000000</v>
       </c>
     </row>
   </sheetData>

--- a/craftsmen.xlsx
+++ b/craftsmen.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{DEFDBD1C-FEE5-C546-AA43-9B22124436CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{40E0259C-ADBA-BC42-8789-385CAFC4F17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>الاسم</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>شارع المعامل</t>
+  </si>
+  <si>
+    <t>احمد ابو رسلان</t>
   </si>
 </sst>
 </file>
@@ -464,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -559,6 +562,20 @@
         <v>770000000</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>75000000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
